--- a/6_Moora/Metode MOORA.xlsx
+++ b/6_Moora/Metode MOORA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kode\My Youtube\NSPK\Kode\6_Moora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Dropbox\UMP Informatika\SPK\2022\8_Moora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B985F3CD-925B-4B5B-9673-3CF7DBDE82AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E814D087-3D1D-43BC-89FD-F2E1603CF4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="1620" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1740" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="101">
   <si>
     <t>Evaluasi penilaian Produk Curling Iron Terbaik dari 7 produk alternatif yang akan dibeli. Akan dipilih satu produk terbaik berdasarkan kriteria-kriteria yang telah ditentukan. Konsepnya adalah mencari produk Curling Iron yang memiliki karakteristik terbaik dari beberapa atribut/kriteria yang dinilai.</t>
   </si>
@@ -335,23 +335,16 @@
   </si>
   <si>
     <t>Rangking</t>
-  </si>
-  <si>
-    <t>Multi-Objective Optimization On The Basis Of Ratio Analysis (MOORA)</t>
-  </si>
-  <si>
-    <t>Nilai Optimasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -375,29 +368,6 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -419,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -516,37 +486,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,48 +510,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -649,7 +569,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2914650" cy="971550"/>
@@ -679,50 +599,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>956654</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>34443</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9286D2-0911-C6C0-6C9C-46A238604487}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7675245" y="8185785"/>
-          <a:ext cx="2471129" cy="1099338"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -927,338 +803,346 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="3.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>12</v>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6">
+        <v>89000</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6">
-        <v>89000</v>
+        <v>125000</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L5" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6">
-        <v>125000</v>
+        <v>199000</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L6" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6">
-        <v>199000</v>
+        <v>289000</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L7" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="6">
-        <v>289000</v>
+        <v>275000</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L8" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6">
-        <v>275000</v>
+        <v>287000</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="5">
-        <v>10</v>
-      </c>
     </row>
     <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6">
-        <v>287000</v>
+        <v>249000</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="6">
-        <v>249000</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>12</v>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="J11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1267,83 +1151,88 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="J12" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="L12" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J13" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L13" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5">
+        <v>20</v>
+      </c>
+      <c r="G14" s="5">
+        <v>50</v>
+      </c>
+      <c r="H14" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
@@ -1352,91 +1241,100 @@
         <v>20</v>
       </c>
       <c r="G15" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H15" s="5">
         <v>30</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D16" s="5">
+        <v>30</v>
+      </c>
+      <c r="E16" s="5">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5">
+        <v>40</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="5">
-        <v>50</v>
-      </c>
-      <c r="F16" s="5">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5">
-        <v>40</v>
-      </c>
-      <c r="H16" s="5">
-        <v>30</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>12</v>
+      <c r="L16" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5">
         <v>50</v>
       </c>
       <c r="G17" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H17" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L17" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5">
         <v>40</v>
@@ -1448,33 +1346,33 @@
         <v>50</v>
       </c>
       <c r="G18" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H18" s="5">
         <v>30</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L18" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E19" s="5">
         <v>40</v>
@@ -1489,166 +1387,160 @@
         <v>30</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L19" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E20" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F20" s="5">
         <v>50</v>
       </c>
       <c r="G20" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H20" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="5">
-        <v>30</v>
-      </c>
-      <c r="E21" s="5">
-        <v>50</v>
-      </c>
-      <c r="F21" s="5">
-        <v>50</v>
-      </c>
-      <c r="G21" s="5">
-        <v>40</v>
-      </c>
-      <c r="H21" s="5">
-        <v>40</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>12</v>
+      <c r="L23" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>64</v>
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L24" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E25" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L25" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>68</v>
@@ -1657,47 +1549,38 @@
         <v>2.1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="5">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E27" s="5">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>78</v>
@@ -1706,105 +1589,111 @@
         <v>1.8</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>5</v>
-      </c>
-      <c r="B29" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>80</v>
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="5">
+        <v>30</v>
+      </c>
+      <c r="E34" s="5">
+        <v>20</v>
+      </c>
+      <c r="F34" s="5">
+        <v>30</v>
+      </c>
+      <c r="G34" s="5">
+        <v>50</v>
+      </c>
+      <c r="H34" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D35" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5">
         <v>20</v>
@@ -1816,70 +1705,70 @@
         <v>50</v>
       </c>
       <c r="H35" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D36" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E36" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F36" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G36" s="5">
         <v>50</v>
       </c>
       <c r="H36" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D37" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E37" s="5">
         <v>50</v>
       </c>
       <c r="F37" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G37" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H37" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D38" s="5">
         <v>40</v>
@@ -1894,21 +1783,21 @@
         <v>40</v>
       </c>
       <c r="H38" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D39" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E39" s="5">
         <v>50</v>
@@ -1925,734 +1814,599 @@
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D40" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E40" s="5">
         <v>50</v>
       </c>
       <c r="F40" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G40" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>7</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="5">
-        <v>30</v>
-      </c>
-      <c r="E41" s="5">
-        <v>50</v>
-      </c>
-      <c r="F41" s="5">
-        <v>40</v>
-      </c>
-      <c r="G41" s="5">
-        <v>50</v>
-      </c>
-      <c r="H41" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>9</v>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D43" s="10">
+        <v>30</v>
+      </c>
+      <c r="E43" s="10">
+        <v>20</v>
+      </c>
+      <c r="F43" s="10">
+        <v>30</v>
+      </c>
+      <c r="G43" s="10">
+        <v>50</v>
+      </c>
+      <c r="H43" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D44" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>80</v>
+      <c r="D44" s="10">
+        <v>20</v>
+      </c>
+      <c r="E44" s="10">
+        <v>20</v>
+      </c>
+      <c r="F44" s="10">
+        <v>30</v>
+      </c>
+      <c r="G44" s="10">
+        <v>50</v>
+      </c>
+      <c r="H44" s="10">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D45" s="15">
-        <v>30</v>
-      </c>
-      <c r="E45" s="15">
-        <v>20</v>
-      </c>
-      <c r="F45" s="15">
-        <v>30</v>
-      </c>
-      <c r="G45" s="15">
-        <v>50</v>
-      </c>
-      <c r="H45" s="15">
-        <v>50</v>
+      <c r="D45" s="10">
+        <v>30</v>
+      </c>
+      <c r="E45" s="10">
+        <v>50</v>
+      </c>
+      <c r="F45" s="10">
+        <v>40</v>
+      </c>
+      <c r="G45" s="10">
+        <v>50</v>
+      </c>
+      <c r="H45" s="10">
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D46" s="15">
-        <v>20</v>
-      </c>
-      <c r="E46" s="15">
-        <v>20</v>
-      </c>
-      <c r="F46" s="15">
-        <v>30</v>
-      </c>
-      <c r="G46" s="15">
-        <v>50</v>
-      </c>
-      <c r="H46" s="15">
-        <v>40</v>
+      <c r="C46" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="10">
+        <v>40</v>
+      </c>
+      <c r="E46" s="10">
+        <v>50</v>
+      </c>
+      <c r="F46" s="10">
+        <v>30</v>
+      </c>
+      <c r="G46" s="10">
+        <v>40</v>
+      </c>
+      <c r="H46" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D47" s="15">
-        <v>30</v>
-      </c>
-      <c r="E47" s="15">
-        <v>50</v>
-      </c>
-      <c r="F47" s="15">
-        <v>40</v>
-      </c>
-      <c r="G47" s="15">
-        <v>50</v>
-      </c>
-      <c r="H47" s="15">
+      <c r="D47" s="10">
+        <v>40</v>
+      </c>
+      <c r="E47" s="10">
+        <v>50</v>
+      </c>
+      <c r="F47" s="10">
+        <v>30</v>
+      </c>
+      <c r="G47" s="10">
+        <v>40</v>
+      </c>
+      <c r="H47" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C48" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="15">
-        <v>40</v>
-      </c>
-      <c r="E48" s="15">
-        <v>50</v>
-      </c>
-      <c r="F48" s="15">
-        <v>30</v>
-      </c>
-      <c r="G48" s="15">
-        <v>40</v>
-      </c>
-      <c r="H48" s="15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D49" s="15">
-        <v>40</v>
-      </c>
-      <c r="E49" s="15">
-        <v>50</v>
-      </c>
-      <c r="F49" s="15">
-        <v>30</v>
-      </c>
-      <c r="G49" s="15">
-        <v>40</v>
-      </c>
-      <c r="H49" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D50" s="15">
-        <v>50</v>
-      </c>
-      <c r="E50" s="15">
-        <v>50</v>
-      </c>
-      <c r="F50" s="15">
-        <v>30</v>
-      </c>
-      <c r="G50" s="15">
-        <v>40</v>
-      </c>
-      <c r="H50" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D51" s="15">
-        <v>30</v>
-      </c>
-      <c r="E51" s="15">
-        <v>50</v>
-      </c>
-      <c r="F51" s="15">
-        <v>40</v>
-      </c>
-      <c r="G51" s="15">
-        <v>50</v>
-      </c>
-      <c r="H51" s="15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C52" s="10" t="s">
+      <c r="D48" s="10">
+        <v>50</v>
+      </c>
+      <c r="E48" s="10">
+        <v>50</v>
+      </c>
+      <c r="F48" s="10">
+        <v>30</v>
+      </c>
+      <c r="G48" s="10">
+        <v>40</v>
+      </c>
+      <c r="H48" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D49" s="10">
+        <v>30</v>
+      </c>
+      <c r="E49" s="10">
+        <v>50</v>
+      </c>
+      <c r="F49" s="10">
+        <v>40</v>
+      </c>
+      <c r="G49" s="10">
+        <v>50</v>
+      </c>
+      <c r="H49" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C50" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="17">
-        <f t="shared" ref="D52:H52" si="0">SQRT(((D45^2))+(D46^2)+(D47^2)+(D48^2)+(D49^2)+(D50^2)+(D51^2))</f>
+      <c r="D50" s="12">
+        <f t="shared" ref="D50:H50" si="0">SQRT(((D43^2))+(D44^2)+(D45^2)+(D46^2)+(D47^2)+(D48^2)+(D49^2))</f>
         <v>93.808315196468598</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E50" s="12">
         <f t="shared" si="0"/>
         <v>115.32562594670796</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F50" s="12">
         <f t="shared" si="0"/>
         <v>87.749643873921215</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G50" s="12">
         <f t="shared" si="0"/>
         <v>121.6552506059644</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H50" s="12">
         <f t="shared" si="0"/>
         <v>104.4030650891055</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C53" s="10"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="1:8" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="51" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="3" t="s">
+      <c r="D51" s="13">
+        <f t="shared" ref="D51:D57" si="1">D43/$D$50</f>
+        <v>0.31980107453341561</v>
+      </c>
+      <c r="E51" s="13">
+        <f t="shared" ref="E51:E57" si="2">E43/$E$50</f>
+        <v>0.17342199390482399</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" ref="F51:F57" si="3">F43/$F$50</f>
+        <v>0.34188172937891387</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" ref="G51:G57" si="4">G43/$G$50</f>
+        <v>0.41099746826339323</v>
+      </c>
+      <c r="H51" s="13">
+        <f t="shared" ref="H51:H57" si="5">H43/$H$50</f>
+        <v>0.47891314261057571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D52" s="13">
+        <f t="shared" si="1"/>
+        <v>0.21320071635561041</v>
+      </c>
+      <c r="E52" s="13">
+        <f t="shared" si="2"/>
+        <v>0.17342199390482399</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="3"/>
+        <v>0.34188172937891387</v>
+      </c>
+      <c r="G52" s="13">
+        <f t="shared" si="4"/>
+        <v>0.41099746826339323</v>
+      </c>
+      <c r="H52" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38313051408846061</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D53" s="13">
+        <f t="shared" si="1"/>
+        <v>0.31980107453341561</v>
+      </c>
+      <c r="E53" s="13">
+        <f t="shared" si="2"/>
+        <v>0.43355498476206</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="3"/>
+        <v>0.45584230583855184</v>
+      </c>
+      <c r="G53" s="13">
+        <f t="shared" si="4"/>
+        <v>0.41099746826339323</v>
+      </c>
+      <c r="H53" s="13">
+        <f t="shared" si="5"/>
+        <v>0.28734788556634544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C54" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="13">
+        <f t="shared" si="1"/>
+        <v>0.42640143271122083</v>
+      </c>
+      <c r="E54" s="13">
+        <f t="shared" si="2"/>
+        <v>0.43355498476206</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="3"/>
+        <v>0.34188172937891387</v>
+      </c>
+      <c r="G54" s="13">
+        <f t="shared" si="4"/>
+        <v>0.32879797461071458</v>
+      </c>
+      <c r="H54" s="13">
+        <f t="shared" si="5"/>
+        <v>0.47891314261057571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D55" s="13">
+        <f t="shared" si="1"/>
+        <v>0.42640143271122083</v>
+      </c>
+      <c r="E55" s="13">
+        <f t="shared" si="2"/>
+        <v>0.43355498476206</v>
+      </c>
+      <c r="F55" s="13">
+        <f t="shared" si="3"/>
+        <v>0.34188172937891387</v>
+      </c>
+      <c r="G55" s="13">
+        <f t="shared" si="4"/>
+        <v>0.32879797461071458</v>
+      </c>
+      <c r="H55" s="13">
+        <f t="shared" si="5"/>
+        <v>0.28734788556634544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D56" s="13">
+        <f t="shared" si="1"/>
+        <v>0.53300179088902599</v>
+      </c>
+      <c r="E56" s="13">
+        <f t="shared" si="2"/>
+        <v>0.43355498476206</v>
+      </c>
+      <c r="F56" s="13">
+        <f t="shared" si="3"/>
+        <v>0.34188172937891387</v>
+      </c>
+      <c r="G56" s="13">
+        <f t="shared" si="4"/>
+        <v>0.32879797461071458</v>
+      </c>
+      <c r="H56" s="13">
+        <f t="shared" si="5"/>
+        <v>0.28734788556634544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D57" s="13">
+        <f t="shared" si="1"/>
+        <v>0.31980107453341561</v>
+      </c>
+      <c r="E57" s="13">
+        <f t="shared" si="2"/>
+        <v>0.43355498476206</v>
+      </c>
+      <c r="F57" s="13">
+        <f t="shared" si="3"/>
+        <v>0.45584230583855184</v>
+      </c>
+      <c r="G57" s="13">
+        <f t="shared" si="4"/>
+        <v>0.41099746826339323</v>
+      </c>
+      <c r="H57" s="13">
+        <f t="shared" si="5"/>
+        <v>0.38313051408846061</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E59" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="F59" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="G59" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="H59" s="14">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C60" s="11"/>
+      <c r="D60" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C61" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="16">
+        <f t="shared" ref="D61:D67" si="6">(D51*$D$59)+(E51*$E$59)+(F51*$F$59)</f>
+        <v>1.7857001828693639</v>
+      </c>
+      <c r="E61" s="16">
+        <f t="shared" ref="E61:E67" si="7">(G51*$G$59)+(H51*$H$59)</f>
+        <v>1.601839099573144</v>
+      </c>
+      <c r="F61" s="16">
+        <f t="shared" ref="F61:F67" si="8">D61-E61</f>
+        <v>0.18386108329621997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C62" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5511793948781927</v>
+      </c>
+      <c r="E62" s="16">
+        <f t="shared" si="7"/>
+        <v>1.4294303682333369</v>
+      </c>
+      <c r="F62" s="16">
+        <f t="shared" si="8"/>
+        <v>0.12174902664485576</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C63" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="16">
+        <f t="shared" si="6"/>
+        <v>2.5712966742347994</v>
+      </c>
+      <c r="E63" s="16">
+        <f t="shared" si="7"/>
+        <v>1.2570216368935296</v>
+      </c>
+      <c r="F63" s="16">
+        <f t="shared" si="8"/>
+        <v>1.3142750373412697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C64" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="16">
+        <f t="shared" si="6"/>
+        <v>2.5665002516607309</v>
+      </c>
+      <c r="E64" s="16">
+        <f t="shared" si="7"/>
+        <v>1.4538800109983225</v>
+      </c>
+      <c r="F64" s="16">
+        <f t="shared" si="8"/>
+        <v>1.1126202406624084</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C65" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="16">
+        <f t="shared" si="6"/>
+        <v>2.5665002516607309</v>
+      </c>
+      <c r="E65" s="16">
+        <f t="shared" si="7"/>
+        <v>1.109062548318708</v>
+      </c>
+      <c r="F65" s="16">
+        <f t="shared" si="8"/>
+        <v>1.4574377033420229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C66" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="16">
+        <f t="shared" si="6"/>
+        <v>2.8010210396519022</v>
+      </c>
+      <c r="E66" s="16">
+        <f t="shared" si="7"/>
+        <v>1.109062548318708</v>
+      </c>
+      <c r="F66" s="16">
+        <f t="shared" si="8"/>
+        <v>1.6919584913331942</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C67" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="16">
+        <f t="shared" si="6"/>
+        <v>2.5712966742347994</v>
+      </c>
+      <c r="E67" s="16">
+        <f t="shared" si="7"/>
+        <v>1.4294303682333369</v>
+      </c>
+      <c r="F67" s="16">
+        <f t="shared" si="8"/>
+        <v>1.1418663060014624</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C69" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C70" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="16">
+        <v>0.17256236397351454</v>
+      </c>
+      <c r="E70" s="9">
         <v>6</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="3" t="s">
+    </row>
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C71" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="16">
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="E71" s="9">
         <v>7</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C55" s="10"/>
-      <c r="D55" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D56" s="16">
-        <f>D45/$D$52</f>
-        <v>0.31980107453341561</v>
-      </c>
-      <c r="E56" s="16">
-        <f t="shared" ref="E56:E62" si="1">E45/$E$52</f>
-        <v>0.17342199390482399</v>
-      </c>
-      <c r="F56" s="16">
-        <f t="shared" ref="F56:F62" si="2">F45/$F$52</f>
-        <v>0.34188172937891387</v>
-      </c>
-      <c r="G56" s="16">
-        <f t="shared" ref="G56:G62" si="3">G45/$G$52</f>
-        <v>0.41099746826339323</v>
-      </c>
-      <c r="H56" s="16">
-        <f t="shared" ref="H56:H62" si="4">H45/$H$52</f>
-        <v>0.47891314261057571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D57" s="16">
-        <f t="shared" ref="D57:D62" si="5">D46/$D$52</f>
-        <v>0.21320071635561041</v>
-      </c>
-      <c r="E57" s="16">
-        <f t="shared" si="1"/>
-        <v>0.17342199390482399</v>
-      </c>
-      <c r="F57" s="16">
-        <f t="shared" si="2"/>
-        <v>0.34188172937891387</v>
-      </c>
-      <c r="G57" s="16">
-        <f t="shared" si="3"/>
-        <v>0.41099746826339323</v>
-      </c>
-      <c r="H57" s="16">
-        <f t="shared" si="4"/>
-        <v>0.38313051408846061</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D58" s="16">
-        <f t="shared" si="5"/>
-        <v>0.31980107453341561</v>
-      </c>
-      <c r="E58" s="16">
-        <f t="shared" si="1"/>
-        <v>0.43355498476206</v>
-      </c>
-      <c r="F58" s="16">
-        <f t="shared" si="2"/>
-        <v>0.45584230583855184</v>
-      </c>
-      <c r="G58" s="16">
-        <f t="shared" si="3"/>
-        <v>0.41099746826339323</v>
-      </c>
-      <c r="H58" s="16">
-        <f t="shared" si="4"/>
-        <v>0.28734788556634544</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C59" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="16">
-        <f t="shared" si="5"/>
-        <v>0.42640143271122083</v>
-      </c>
-      <c r="E59" s="16">
-        <f t="shared" si="1"/>
-        <v>0.43355498476206</v>
-      </c>
-      <c r="F59" s="16">
-        <f t="shared" si="2"/>
-        <v>0.34188172937891387</v>
-      </c>
-      <c r="G59" s="16">
-        <f t="shared" si="3"/>
-        <v>0.32879797461071458</v>
-      </c>
-      <c r="H59" s="16">
-        <f t="shared" si="4"/>
-        <v>0.47891314261057571</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D60" s="16">
-        <f t="shared" si="5"/>
-        <v>0.42640143271122083</v>
-      </c>
-      <c r="E60" s="16">
-        <f t="shared" si="1"/>
-        <v>0.43355498476206</v>
-      </c>
-      <c r="F60" s="16">
-        <f t="shared" si="2"/>
-        <v>0.34188172937891387</v>
-      </c>
-      <c r="G60" s="16">
-        <f t="shared" si="3"/>
-        <v>0.32879797461071458</v>
-      </c>
-      <c r="H60" s="16">
-        <f t="shared" si="4"/>
-        <v>0.28734788556634544</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D61" s="16">
-        <f t="shared" si="5"/>
-        <v>0.53300179088902599</v>
-      </c>
-      <c r="E61" s="16">
-        <f t="shared" si="1"/>
-        <v>0.43355498476206</v>
-      </c>
-      <c r="F61" s="16">
-        <f t="shared" si="2"/>
-        <v>0.34188172937891387</v>
-      </c>
-      <c r="G61" s="16">
-        <f t="shared" si="3"/>
-        <v>0.32879797461071458</v>
-      </c>
-      <c r="H61" s="16">
-        <f t="shared" si="4"/>
-        <v>0.28734788556634544</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D62" s="16">
-        <f t="shared" si="5"/>
-        <v>0.31980107453341561</v>
-      </c>
-      <c r="E62" s="16">
-        <f t="shared" si="1"/>
-        <v>0.43355498476206</v>
-      </c>
-      <c r="F62" s="16">
-        <f t="shared" si="2"/>
-        <v>0.45584230583855184</v>
-      </c>
-      <c r="G62" s="16">
-        <f t="shared" si="3"/>
-        <v>0.41099746826339323</v>
-      </c>
-      <c r="H62" s="16">
-        <f t="shared" si="4"/>
-        <v>0.38313051408846061</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E63" s="15">
-        <v>2.1</v>
-      </c>
-      <c r="F63" s="15">
-        <v>2.1</v>
-      </c>
-      <c r="G63" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="H63" s="15">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="23">
-        <f>D63*D56</f>
-        <v>0.70356236397351435</v>
-      </c>
-      <c r="E64" s="23">
-        <f>E56*E63</f>
-        <v>0.36418618720013041</v>
-      </c>
-      <c r="F64" s="23">
-        <f t="shared" ref="F64:H64" si="6">F63*F56</f>
-        <v>0.71795163169571918</v>
-      </c>
-      <c r="G64" s="24">
-        <f t="shared" si="6"/>
-        <v>0.73979544287410781</v>
-      </c>
-      <c r="H64" s="24">
-        <f t="shared" si="6"/>
-        <v>0.86204365669903626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C65" s="10"/>
-      <c r="D65" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C66" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="16">
-        <f t="shared" ref="D66:D72" si="7">(D56*$D$63)+(E56*$E$63)+(F56*$F$63)</f>
-        <v>1.7857001828693639</v>
-      </c>
-      <c r="E66" s="16">
-        <f t="shared" ref="E66:E72" si="8">(G56*$G$63)+(H56*$H$63)</f>
-        <v>1.601839099573144</v>
-      </c>
-      <c r="F66" s="16">
-        <f t="shared" ref="F66:F72" si="9">D66-E66</f>
-        <v>0.18386108329621997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C67" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="16">
-        <f t="shared" si="7"/>
-        <v>1.5511793948781927</v>
-      </c>
-      <c r="E67" s="16">
-        <f t="shared" si="8"/>
-        <v>1.4294303682333369</v>
-      </c>
-      <c r="F67" s="16">
-        <f t="shared" si="9"/>
-        <v>0.12174902664485576</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C68" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="16">
-        <f t="shared" si="7"/>
-        <v>2.5712966742347994</v>
-      </c>
-      <c r="E68" s="16">
-        <f t="shared" si="8"/>
-        <v>1.2570216368935296</v>
-      </c>
-      <c r="F68" s="16">
-        <f t="shared" si="9"/>
-        <v>1.3142750373412697</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C69" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="16">
-        <f t="shared" si="7"/>
-        <v>2.5665002516607309</v>
-      </c>
-      <c r="E69" s="16">
-        <f t="shared" si="8"/>
-        <v>1.4538800109983225</v>
-      </c>
-      <c r="F69" s="16">
-        <f t="shared" si="9"/>
-        <v>1.1126202406624084</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C70" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" s="16">
-        <f t="shared" si="7"/>
-        <v>2.5665002516607309</v>
-      </c>
-      <c r="E70" s="16">
-        <f t="shared" si="8"/>
-        <v>1.109062548318708</v>
-      </c>
-      <c r="F70" s="16">
-        <f t="shared" si="9"/>
-        <v>1.4574377033420229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C71" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="16">
-        <f t="shared" si="7"/>
-        <v>2.8010210396519022</v>
-      </c>
-      <c r="E71" s="16">
-        <f t="shared" si="8"/>
-        <v>1.109062548318708</v>
-      </c>
-      <c r="F71" s="16">
-        <f t="shared" si="9"/>
-        <v>1.6919584913331942</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C72" s="10" t="s">
-        <v>97</v>
+    </row>
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C72" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="D72" s="16">
-        <f t="shared" si="7"/>
-        <v>2.5712966742347994</v>
-      </c>
-      <c r="E72" s="16">
-        <f t="shared" si="8"/>
-        <v>1.4294303682333369</v>
-      </c>
-      <c r="F72" s="16">
-        <f t="shared" si="9"/>
-        <v>1.1418663060014624</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C74" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C75" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="21">
-        <v>0.17256236397351454</v>
-      </c>
-      <c r="E75" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C76" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="21">
-        <v>0.11099999999999999</v>
-      </c>
-      <c r="E76" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C77" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="21">
         <v>1.3130000000000004</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E72" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C78" s="15" t="s">
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C73" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D73" s="16">
         <v>1.105</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E73" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C79" s="15" t="s">
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C74" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D74" s="16">
         <v>1.4470000000000001</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E74" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C80" s="15" t="s">
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C75" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D75" s="16">
         <v>1.6669999999999998</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E75" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C81" s="15" t="s">
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C76" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D76" s="16">
         <v>1.1510000000000002</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E76" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>